--- a/Client/Dev/AnimalRescue/Assets/Tables/boss_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/boss_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,58 @@
   <si>
     <t>prefab_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss2</t>
+  </si>
+  <si>
+    <t>Boss3</t>
+  </si>
+  <si>
+    <t>Prefabs\Enemy\Boss\Boss1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Enemy\Boss\Boss2</t>
+  </si>
+  <si>
+    <t>Prefabs\Enemy\Boss\Boss3</t>
   </si>
 </sst>
 </file>
@@ -79,20 +131,47 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -101,9 +180,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -385,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -396,36 +484,141 @@
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Dev/AnimalRescue/Assets/Tables/boss_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/boss_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Unity\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323C6B0D-548C-4575-80BA-C99308936BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="8700"/>
+    <workbookView xWindow="3825" yWindow="7200" windowWidth="28800" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,11 +473,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -545,7 +546,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -571,7 +572,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
@@ -597,7 +598,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>2002</v>
+        <v>3002</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>

--- a/Client/Dev/AnimalRescue/Assets/Tables/boss_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/boss_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Unity\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323C6B0D-548C-4575-80BA-C99308936BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="7200" windowWidth="28800" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="7200" windowWidth="28800" windowHeight="14970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,30 +90,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Boss1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss2</t>
-  </si>
-  <si>
-    <t>Boss3</t>
-  </si>
-  <si>
-    <t>Prefabs\Enemy\Boss\Boss1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs\Enemy\Boss\Boss2</t>
-  </si>
-  <si>
-    <t>Prefabs\Enemy\Boss\Boss3</t>
+    <t>ForestGuardian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Enemy\Boss\BossForestGuardian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AncientWarrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Enemy\Boss\BossAncientWarrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementalGolem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Enemy\Boss\BossElementalGolem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -473,22 +476,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -558,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F3" s="2">
         <v>1.5</v>
@@ -567,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -575,7 +578,7 @@
         <v>3001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>25</v>
@@ -584,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F4" s="2">
         <v>1.7</v>
@@ -593,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -601,7 +604,7 @@
         <v>3002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>26</v>
@@ -610,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>

--- a/Client/Dev/AnimalRescue/Assets/Tables/boss_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/boss_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Unity\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CF7BC6-C5BD-4E6E-A71E-7EA822EA3322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="7200" windowWidth="28800" windowHeight="14970"/>
+    <workbookView xWindow="11310" yWindow="5040" windowWidth="21330" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -476,11 +477,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -561,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="2">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F3" s="2">
         <v>1.5</v>
@@ -587,7 +588,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F4" s="2">
         <v>1.7</v>
@@ -613,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>

--- a/Client/Dev/AnimalRescue/Assets/Tables/boss_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/boss_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CF7BC6-C5BD-4E6E-A71E-7EA822EA3322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B943625-76C8-420E-9421-CF672537D404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11310" yWindow="5040" windowWidth="21330" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -568,7 +568,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>17</v>
@@ -594,7 +594,7 @@
         <v>1.7</v>
       </c>
       <c r="G4" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>19</v>
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>21</v>
